--- a/3nen_GT_7/DXlib/DXlib/Assets/Data/stage1.xlsx
+++ b/3nen_GT_7/DXlib/DXlib/Assets/Data/stage1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\K018A1699\3nen_team01\3nen_GT_7\DXlib\DXlib\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\3nen_GT_7\3nen_GT_7\DXlib\DXlib\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10212" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="stage1" sheetId="1" r:id="rId1"/>
@@ -350,171 +350,171 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="BD13" sqref="BD13"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="BB14" sqref="BB14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -830,7 +830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -988,7 +988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1</v>
       </c>
@@ -3358,9 +3358,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -3519,5 +3519,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/3nen_GT_7/DXlib/DXlib/Assets/Data/stage1.xlsx
+++ b/3nen_GT_7/DXlib/DXlib/Assets/Data/stage1.xlsx
@@ -5,30 +5,169 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\3nen_GT_7\3nen_GT_7\DXlib\DXlib\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KPC-018A1434\Desktop\Team_7Seven\3nen_GT_7\DXlib\DXlib\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="9075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
     <sheet name="stage1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="游ゴシック Light"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -42,15 +181,188 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -58,9 +370,239 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -69,8 +611,49 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="アクセント 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="アクセント 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="アクセント 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -348,173 +931,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ20"/>
+  <dimension ref="A1:BL18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="BB14" sqref="BB14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="64" width="3.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN1">
         <v>1</v>
       </c>
       <c r="AO1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ1">
         <v>1</v>
       </c>
+      <c r="BA1">
+        <v>1</v>
+      </c>
+      <c r="BB1">
+        <v>1</v>
+      </c>
+      <c r="BC1">
+        <v>1</v>
+      </c>
+      <c r="BD1">
+        <v>1</v>
+      </c>
+      <c r="BE1">
+        <v>1</v>
+      </c>
+      <c r="BF1">
+        <v>1</v>
+      </c>
+      <c r="BG1">
+        <v>1</v>
+      </c>
+      <c r="BH1">
+        <v>1</v>
+      </c>
+      <c r="BI1">
+        <v>1</v>
+      </c>
+      <c r="BJ1">
+        <v>1</v>
+      </c>
+      <c r="BK1">
+        <v>1</v>
+      </c>
+      <c r="BL1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -633,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -669,10 +1291,46 @@
         <v>0</v>
       </c>
       <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -791,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -827,10 +1485,46 @@
         <v>0</v>
       </c>
       <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -949,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -985,10 +1679,46 @@
         <v>0</v>
       </c>
       <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1107,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -1143,10 +1873,46 @@
         <v>0</v>
       </c>
       <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1265,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6">
         <v>0</v>
@@ -1301,10 +2067,46 @@
         <v>0</v>
       </c>
       <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1423,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -1459,10 +2261,46 @@
         <v>0</v>
       </c>
       <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1581,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -1617,10 +2455,46 @@
         <v>0</v>
       </c>
       <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1739,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -1775,10 +2649,46 @@
         <v>0</v>
       </c>
       <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1897,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="AN10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -1933,10 +2843,46 @@
         <v>0</v>
       </c>
       <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2046,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -2055,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -2091,10 +3037,46 @@
         <v>0</v>
       </c>
       <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2204,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="AK12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -2213,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="AN12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -2249,10 +3231,46 @@
         <v>0</v>
       </c>
       <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2362,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2371,25 +3389,25 @@
         <v>0</v>
       </c>
       <c r="AN13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -2407,10 +3425,46 @@
         <v>0</v>
       </c>
       <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2565,10 +3619,46 @@
         <v>0</v>
       </c>
       <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>0</v>
+      </c>
+      <c r="BL14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2723,10 +3813,46 @@
         <v>0</v>
       </c>
       <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
+        <v>0</v>
+      </c>
+      <c r="BL15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2788,19 +3914,19 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2815,19 +3941,19 @@
         <v>0</v>
       </c>
       <c r="AD16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI16">
         <v>0</v>
@@ -2881,10 +4007,46 @@
         <v>0</v>
       </c>
       <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3039,486 +4201,251 @@
         <v>0</v>
       </c>
       <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
+      <c r="BK17">
+        <v>0</v>
+      </c>
+      <c r="BL17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>0</v>
-      </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>0</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>0</v>
-      </c>
-      <c r="AS19">
-        <v>0</v>
-      </c>
-      <c r="AT19">
-        <v>0</v>
-      </c>
-      <c r="AU19">
-        <v>0</v>
-      </c>
-      <c r="AV19">
-        <v>0</v>
-      </c>
-      <c r="AW19">
-        <v>0</v>
-      </c>
-      <c r="AX19">
-        <v>0</v>
-      </c>
-      <c r="AY19">
-        <v>0</v>
-      </c>
-      <c r="AZ19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>2</v>
-      </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-      <c r="N20">
-        <v>2</v>
-      </c>
-      <c r="O20">
-        <v>2</v>
-      </c>
-      <c r="P20">
-        <v>2</v>
-      </c>
-      <c r="Q20">
-        <v>2</v>
-      </c>
-      <c r="R20">
-        <v>2</v>
-      </c>
-      <c r="S20">
-        <v>2</v>
-      </c>
-      <c r="T20">
-        <v>2</v>
-      </c>
-      <c r="U20">
-        <v>2</v>
-      </c>
-      <c r="V20">
-        <v>2</v>
-      </c>
-      <c r="W20">
-        <v>2</v>
-      </c>
-      <c r="X20">
-        <v>2</v>
-      </c>
-      <c r="Y20">
-        <v>2</v>
-      </c>
-      <c r="Z20">
-        <v>2</v>
-      </c>
-      <c r="AA20">
-        <v>2</v>
-      </c>
-      <c r="AB20">
-        <v>2</v>
-      </c>
-      <c r="AC20">
-        <v>2</v>
-      </c>
-      <c r="AD20">
-        <v>2</v>
-      </c>
-      <c r="AE20">
-        <v>2</v>
-      </c>
-      <c r="AF20">
-        <v>2</v>
-      </c>
-      <c r="AG20">
-        <v>2</v>
-      </c>
-      <c r="AH20">
-        <v>2</v>
-      </c>
-      <c r="AI20">
-        <v>2</v>
-      </c>
-      <c r="AJ20">
-        <v>2</v>
-      </c>
-      <c r="AK20">
-        <v>2</v>
-      </c>
-      <c r="AL20">
-        <v>2</v>
-      </c>
-      <c r="AM20">
-        <v>2</v>
-      </c>
-      <c r="AN20">
-        <v>2</v>
-      </c>
-      <c r="AO20">
-        <v>2</v>
-      </c>
-      <c r="AP20">
-        <v>2</v>
-      </c>
-      <c r="AQ20">
-        <v>2</v>
-      </c>
-      <c r="AR20">
-        <v>2</v>
-      </c>
-      <c r="AS20">
-        <v>2</v>
-      </c>
-      <c r="AT20">
-        <v>2</v>
-      </c>
-      <c r="AU20">
-        <v>2</v>
-      </c>
-      <c r="AV20">
-        <v>2</v>
-      </c>
-      <c r="AW20">
-        <v>2</v>
-      </c>
-      <c r="AX20">
-        <v>2</v>
-      </c>
-      <c r="AY20">
-        <v>2</v>
-      </c>
-      <c r="AZ20">
-        <v>2</v>
+      <c r="BA18">
+        <v>1</v>
+      </c>
+      <c r="BB18">
+        <v>1</v>
+      </c>
+      <c r="BC18">
+        <v>1</v>
+      </c>
+      <c r="BD18">
+        <v>1</v>
+      </c>
+      <c r="BE18">
+        <v>1</v>
+      </c>
+      <c r="BF18">
+        <v>1</v>
+      </c>
+      <c r="BG18">
+        <v>1</v>
+      </c>
+      <c r="BH18">
+        <v>1</v>
+      </c>
+      <c r="BI18">
+        <v>1</v>
+      </c>
+      <c r="BJ18">
+        <v>1</v>
+      </c>
+      <c r="BK18">
+        <v>1</v>
+      </c>
+      <c r="BL18">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="18"/>
+  <conditionalFormatting sqref="A1:XFD10 A16:XFD1048576 AK11:AK13 A11:AJ15 AL11:XFD15">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>